--- a/medicine/Sexualité et sexologie/Amours_interdites___Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes/Amours_interdites___Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes.xlsx
+++ b/medicine/Sexualité et sexologie/Amours_interdites___Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes/Amours_interdites___Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amours_interdites_:_Au-del%C3%A0_des_pr%C3%A9jug%C3%A9s,_vies_et_paroles_de_lesbiennes</t>
+          <t>Amours_interdites_:_Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amours interdites : Au-delà des préjugés, vies et paroles de lesbiennes (en anglais : Forbidden Love: The Unashamed Stories of Lesbian Lives) est un film documentaire canadien de 1992 sur les conditions de vie des femmes lesbiennes et de leurs expériences littéraires du genre Lesbian pulp fiction.
 Il a été écrit et réalisé par Aerlyn Weissman et Lynne Fernie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amours_interdites_:_Au-del%C3%A0_des_pr%C3%A9jug%C3%A9s,_vies_et_paroles_de_lesbiennes</t>
+          <t>Amours_interdites_:_Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amours_interdites_:_Au-del%C3%A0_des_pr%C3%A9jug%C3%A9s,_vies_et_paroles_de_lesbiennes</t>
+          <t>Amours_interdites_:_Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation et scénario : Aerlyn Weissman et Lynne Fernie
 Musique : Kathryn Moses
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amours_interdites_:_Au-del%C3%A0_des_pr%C3%A9jug%C3%A9s,_vies_et_paroles_de_lesbiennes</t>
+          <t>Amours_interdites_:_Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Keely Moll : elle-même
 Stephanie Ozard : elle-même
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amours_interdites_:_Au-del%C3%A0_des_pr%C3%A9jug%C3%A9s,_vies_et_paroles_de_lesbiennes</t>
+          <t>Amours_interdites_:_Au-delà_des_préjugés,_vies_et_paroles_de_lesbiennes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +635,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1993, le film a remporté le prix Génie du meilleur long métrage documentaire[1]. En 1994, il a remporté un GLAAD Media Award dans la catégorie Outstanding Film et le Prix du public décerné au meilleur long métrage documentaire au Festival international de films de femmes de Créteil[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1993, le film a remporté le prix Génie du meilleur long métrage documentaire. En 1994, il a remporté un GLAAD Media Award dans la catégorie Outstanding Film et le Prix du public décerné au meilleur long métrage documentaire au Festival international de films de femmes de Créteil.
 </t>
         </is>
       </c>
